--- a/data/players.xlsx
+++ b/data/players.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarth\Desktop\auction\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304653D7-6F7F-4EE2-94ED-000DAB7EA184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342D8047-0C55-4802-8DB1-584255653A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{114998B3-A9B1-4D91-9BF6-0749A2EDDC94}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet2!$F$3:$I$64</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="72">
   <si>
     <t>Role</t>
   </si>
@@ -69,9 +73,6 @@
     <t>Ayush Bhootda</t>
   </si>
   <si>
-    <t>Sourabh totla</t>
-  </si>
-  <si>
     <t>Aditya Maheshwari</t>
   </si>
   <si>
@@ -105,9 +106,6 @@
     <t>GAURAV DAGA</t>
   </si>
   <si>
-    <t>SUNNY MAHESHWARI</t>
-  </si>
-  <si>
     <t>Mayank Malu</t>
   </si>
   <si>
@@ -126,9 +124,6 @@
     <t>Ankush Maheshwari</t>
   </si>
   <si>
-    <t>Rajkumar bhutada</t>
-  </si>
-  <si>
     <t>VICHAR MUNDRA</t>
   </si>
   <si>
@@ -168,19 +163,154 @@
     <t>Player Name</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>default.png</t>
+  </si>
+  <si>
+    <t>Aaditya Bhootra</t>
+  </si>
+  <si>
+    <t>Mohak Maheshwari</t>
+  </si>
+  <si>
+    <t>Pradeep Saboo</t>
+  </si>
+  <si>
+    <t>Shreshtha Maheshwari</t>
+  </si>
+  <si>
+    <t>Arpit Saboo</t>
+  </si>
+  <si>
+    <t>Atharv chichani</t>
+  </si>
+  <si>
+    <t>Aniket Somani</t>
+  </si>
+  <si>
+    <t>Ashish Jaju</t>
+  </si>
+  <si>
+    <t>Raghav Maheshwari</t>
+  </si>
+  <si>
+    <t>Chirayu Jakhetiya</t>
+  </si>
+  <si>
+    <t>Vikas Malu</t>
+  </si>
+  <si>
+    <t>Anik Binnani</t>
+  </si>
+  <si>
+    <t>Keshav Lathi</t>
+  </si>
+  <si>
+    <t>ANUJ BHUTADA</t>
+  </si>
+  <si>
+    <t>Chandresh parwal</t>
+  </si>
+  <si>
+    <t>Shubham Maheshwari</t>
+  </si>
+  <si>
+    <t>Aniruddh Lathi</t>
+  </si>
+  <si>
+    <t>Ritesh Parwal</t>
+  </si>
+  <si>
+    <t>Rajesh Singi</t>
+  </si>
+  <si>
+    <t>Yog/Dhruv Chichani</t>
+  </si>
+  <si>
+    <t>Pradumanya Pradeep Mantri</t>
+  </si>
+  <si>
+    <t>Sanket Mundra</t>
+  </si>
+  <si>
+    <t>Hrithik Jhawar</t>
+  </si>
+  <si>
+    <t>Sankalp mundra</t>
+  </si>
+  <si>
+    <t>Kratik Rathi</t>
+  </si>
+  <si>
+    <t>Wicketkeeper</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Base Price</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MPL3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Player List</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -207,10 +337,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -227,6 +360,42 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3BCEE852-BA94-4447-B223-21B37007A28C}" name="Table2" displayName="Table2" ref="F3:K61" totalsRowShown="0">
+  <autoFilter ref="F3:K61" xr:uid="{3BCEE852-BA94-4447-B223-21B37007A28C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F4:J61">
+    <sortCondition ref="H3:H61"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{50117CD1-DFD7-4CE2-906C-2650A937E4B8}" name="SNo"/>
+    <tableColumn id="2" xr3:uid="{DDA94E2C-1E77-4CDD-8D87-5EF1041CA5D2}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{C7EFC8EA-32AC-48C4-B461-CC747A5D50D4}" name="Role"/>
+    <tableColumn id="4" xr3:uid="{3FF1F624-E3C2-4BBC-B98F-465C5AE685FD}" name="BasePrice"/>
+    <tableColumn id="5" xr3:uid="{7FF15927-0603-4352-BB47-A01FDB31E2A6}" name="PhotoFile">
+      <calculatedColumnFormula>F4&amp;".png"</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{49BB34F4-CB4E-4DE2-A830-3F0971B1EC52}" name="PhoneNumber"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{30CF8979-5201-4872-B51E-4063F22EC9BF}" name="Table22" displayName="Table22" ref="F6:I64" totalsRowShown="0">
+  <autoFilter ref="F6:I64" xr:uid="{30CF8979-5201-4872-B51E-4063F22EC9BF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F7:H64">
+    <sortCondition ref="H6:H64"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{554A2928-67D8-4CC4-ABD5-0D4DD2FBFEB6}" name="SNo"/>
+    <tableColumn id="2" xr3:uid="{71DFF3A1-E3FA-435F-9368-AE707F09E83B}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{895E0FE2-53D4-4AE1-930D-7EB92BE058F3}" name="Role"/>
+    <tableColumn id="7" xr3:uid="{E0F67271-D558-40EB-9E2F-12042685F514}" name="PhoneNumber"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -526,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95C78EB-6926-4C44-8C6D-88C322B2A2EE}">
-  <dimension ref="F3:J39"/>
+  <dimension ref="F3:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,13 +708,17 @@
     <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.21875" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
     <col min="10" max="10" width="19.109375" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.5546875" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="6:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
         <v>4</v>
       </c>
@@ -561,25 +734,31 @@
       <c r="J3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="6:10" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F5">
         <v>1</v>
       </c>
@@ -587,14 +766,20 @@
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I5">
         <v>2000</v>
       </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J33" si="0">F5&amp;".png"</f>
+        <v>1.png</v>
+      </c>
+      <c r="K5">
+        <v>9977888157</v>
+      </c>
+    </row>
+    <row r="6" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F6">
         <v>2</v>
       </c>
@@ -602,14 +787,20 @@
         <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I6">
         <v>2000</v>
       </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>2.png</v>
+      </c>
+      <c r="K6">
+        <v>7879733232</v>
+      </c>
+    </row>
+    <row r="7" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F7">
         <v>3</v>
       </c>
@@ -617,14 +808,20 @@
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I7">
         <v>2000</v>
       </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>3.png</v>
+      </c>
+      <c r="K7">
+        <v>9406662432</v>
+      </c>
+    </row>
+    <row r="8" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F8">
         <v>4</v>
       </c>
@@ -632,14 +829,20 @@
         <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I8">
         <v>2000</v>
       </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>4.png</v>
+      </c>
+      <c r="K8">
+        <v>9993593560</v>
+      </c>
+    </row>
+    <row r="9" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F9">
         <v>5</v>
       </c>
@@ -647,14 +850,20 @@
         <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I9">
         <v>2000</v>
       </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>5.png</v>
+      </c>
+      <c r="K9">
+        <v>9926562668</v>
+      </c>
+    </row>
+    <row r="10" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F10">
         <v>6</v>
       </c>
@@ -662,430 +871,1975 @@
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I10">
         <v>2000</v>
       </c>
-    </row>
-    <row r="11" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>6.png</v>
+      </c>
+      <c r="K10">
+        <v>9424886762</v>
+      </c>
+    </row>
+    <row r="11" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F11">
         <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I11">
         <v>2000</v>
       </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>7.png</v>
+      </c>
+      <c r="K11">
+        <v>9425748989</v>
+      </c>
+    </row>
+    <row r="12" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F12">
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I12">
         <v>2000</v>
       </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>8.png</v>
+      </c>
+      <c r="K12">
+        <v>9425948989</v>
+      </c>
+    </row>
+    <row r="13" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F13">
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13">
         <v>2000</v>
       </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>9.png</v>
+      </c>
+      <c r="K13">
+        <v>7089999908</v>
+      </c>
+    </row>
+    <row r="14" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F14">
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I14">
         <v>2000</v>
       </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>10.png</v>
+      </c>
+      <c r="K14">
+        <v>6261059794</v>
+      </c>
+    </row>
+    <row r="15" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F15">
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I15">
         <v>2000</v>
       </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>11.png</v>
+      </c>
+      <c r="K15">
+        <v>9039840811</v>
+      </c>
+    </row>
+    <row r="16" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F16">
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I16">
         <v>2000</v>
       </c>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>12.png</v>
+      </c>
+      <c r="K16">
+        <v>9827308998</v>
+      </c>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F17">
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I17">
         <v>2000</v>
       </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>13.png</v>
+      </c>
+      <c r="K17">
+        <v>9424868688</v>
+      </c>
+    </row>
+    <row r="18" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F18">
         <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I18">
         <v>2000</v>
       </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>14.png</v>
+      </c>
+      <c r="K18">
+        <v>8085880666</v>
+      </c>
+    </row>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F19">
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I19">
         <v>2000</v>
       </c>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>15.png</v>
+      </c>
+      <c r="K19">
+        <v>8169235413</v>
+      </c>
+    </row>
+    <row r="20" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F20">
         <v>16</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I20">
         <v>2000</v>
       </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>16.png</v>
+      </c>
+      <c r="K20">
+        <v>9619379490</v>
+      </c>
+    </row>
+    <row r="21" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F21">
         <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I21">
         <v>2000</v>
       </c>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>17.png</v>
+      </c>
+      <c r="K21">
+        <v>9827098270</v>
+      </c>
+    </row>
+    <row r="22" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F22">
         <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I22">
         <v>2000</v>
       </c>
-    </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>18.png</v>
+      </c>
+      <c r="K22">
+        <v>9685424209</v>
+      </c>
+    </row>
+    <row r="23" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F23">
         <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I23">
         <v>2000</v>
       </c>
-    </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>19.png</v>
+      </c>
+      <c r="K23">
+        <v>9589705007</v>
+      </c>
+    </row>
+    <row r="24" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F24">
         <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I24">
         <v>2000</v>
       </c>
-    </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>20.png</v>
+      </c>
+      <c r="K24">
+        <v>9111352075</v>
+      </c>
+    </row>
+    <row r="25" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F25">
         <v>21</v>
       </c>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I25">
         <v>2000</v>
       </c>
-    </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>21.png</v>
+      </c>
+      <c r="K25">
+        <v>9424897327</v>
+      </c>
+    </row>
+    <row r="26" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F26">
         <v>22</v>
       </c>
       <c r="G26" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I26">
         <v>2000</v>
       </c>
-    </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>22.png</v>
+      </c>
+      <c r="K26">
+        <v>9827516611</v>
+      </c>
+    </row>
+    <row r="27" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F27">
         <v>23</v>
       </c>
       <c r="G27" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I27">
         <v>2000</v>
       </c>
-    </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>23.png</v>
+      </c>
+      <c r="K27">
+        <v>9907300311</v>
+      </c>
+    </row>
+    <row r="28" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F28">
         <v>24</v>
       </c>
       <c r="G28" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="H28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I28">
         <v>2000</v>
       </c>
-    </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>24.png</v>
+      </c>
+      <c r="K28">
+        <v>9425406371</v>
+      </c>
+    </row>
+    <row r="29" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F29">
         <v>25</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I29">
         <v>2000</v>
       </c>
-    </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v>25.png</v>
+      </c>
+      <c r="K29">
+        <v>9406819841</v>
+      </c>
+    </row>
+    <row r="30" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F30">
         <v>26</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I30">
         <v>2000</v>
       </c>
-    </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>26.png</v>
+      </c>
+      <c r="K30">
+        <v>9425406381</v>
+      </c>
+    </row>
+    <row r="31" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F31">
         <v>27</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I31">
         <v>2000</v>
       </c>
-    </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v>27.png</v>
+      </c>
+      <c r="K31">
+        <v>9300255075</v>
+      </c>
+    </row>
+    <row r="32" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F32">
         <v>28</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I32">
         <v>2000</v>
       </c>
-    </row>
-    <row r="33" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v>28.png</v>
+      </c>
+      <c r="K32">
+        <v>6261147683</v>
+      </c>
+    </row>
+    <row r="33" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F33">
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="H33" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I33">
         <v>2000</v>
       </c>
-    </row>
-    <row r="34" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v>29.png</v>
+      </c>
+      <c r="K33">
+        <v>9827238001</v>
+      </c>
+    </row>
+    <row r="34" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F34">
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H34" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I34">
         <v>2000</v>
       </c>
-    </row>
-    <row r="35" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="J34" t="str">
+        <f t="shared" ref="J34:J61" si="1">F34&amp;".png"</f>
+        <v>30.png</v>
+      </c>
+      <c r="K34">
+        <v>9425049132</v>
+      </c>
+    </row>
+    <row r="35" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F35">
         <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="H35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I35">
         <v>2000</v>
       </c>
-    </row>
-    <row r="36" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="J35" t="str">
+        <f t="shared" si="1"/>
+        <v>31.png</v>
+      </c>
+      <c r="K35">
+        <v>9691468366</v>
+      </c>
+    </row>
+    <row r="36" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F36">
         <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="H36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I36">
         <v>2000</v>
       </c>
-    </row>
-    <row r="37" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="J36" t="str">
+        <f t="shared" si="1"/>
+        <v>32.png</v>
+      </c>
+      <c r="K36">
+        <v>9827227204</v>
+      </c>
+    </row>
+    <row r="37" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F37">
         <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="H37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I37">
         <v>2000</v>
       </c>
-    </row>
-    <row r="38" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="J37" t="str">
+        <f t="shared" si="1"/>
+        <v>33.png</v>
+      </c>
+      <c r="K37">
+        <v>9617733100</v>
+      </c>
+    </row>
+    <row r="38" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F38">
         <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="H38" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I38">
         <v>2000</v>
       </c>
-    </row>
-    <row r="39" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="J38" t="str">
+        <f t="shared" si="1"/>
+        <v>34.png</v>
+      </c>
+      <c r="K38">
+        <v>8103874834</v>
+      </c>
+    </row>
+    <row r="39" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F39">
         <v>35</v>
       </c>
       <c r="G39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39">
+        <v>2000</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="1"/>
+        <v>35.png</v>
+      </c>
+      <c r="K39">
+        <v>9425306590</v>
+      </c>
+    </row>
+    <row r="40" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>36</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40">
+        <v>2000</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="1"/>
+        <v>36.png</v>
+      </c>
+      <c r="K40">
+        <v>7240385111</v>
+      </c>
+    </row>
+    <row r="41" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>37</v>
+      </c>
+      <c r="G41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41">
+        <v>2000</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="1"/>
+        <v>37.png</v>
+      </c>
+      <c r="K41">
+        <v>9098990501</v>
+      </c>
+    </row>
+    <row r="42" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>38</v>
+      </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42">
+        <v>2000</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="1"/>
+        <v>38.png</v>
+      </c>
+      <c r="K42">
+        <v>9893202329</v>
+      </c>
+    </row>
+    <row r="43" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F43">
         <v>39</v>
       </c>
-      <c r="H39" t="s">
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43">
+        <v>2000</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="1"/>
+        <v>39.png</v>
+      </c>
+      <c r="K43">
+        <v>9424502011</v>
+      </c>
+    </row>
+    <row r="44" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F44">
         <v>40</v>
       </c>
-      <c r="I39">
-        <v>2000</v>
+      <c r="G44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44">
+        <v>2000</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="1"/>
+        <v>40.png</v>
+      </c>
+      <c r="K44">
+        <v>9752864334</v>
+      </c>
+    </row>
+    <row r="45" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>41</v>
+      </c>
+      <c r="G45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45">
+        <v>2000</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="1"/>
+        <v>41.png</v>
+      </c>
+      <c r="K45">
+        <v>9584061861</v>
+      </c>
+    </row>
+    <row r="46" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>42</v>
+      </c>
+      <c r="G46" t="s">
+        <v>48</v>
+      </c>
+      <c r="H46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46">
+        <v>2000</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="1"/>
+        <v>42.png</v>
+      </c>
+      <c r="K46">
+        <v>9691085850</v>
+      </c>
+    </row>
+    <row r="47" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>43</v>
+      </c>
+      <c r="G47" t="s">
+        <v>51</v>
+      </c>
+      <c r="H47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47">
+        <v>2000</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="1"/>
+        <v>43.png</v>
+      </c>
+      <c r="K47">
+        <v>8103092492</v>
+      </c>
+    </row>
+    <row r="48" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>44</v>
+      </c>
+      <c r="G48" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48">
+        <v>2000</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="1"/>
+        <v>44.png</v>
+      </c>
+      <c r="K48">
+        <v>9827335611</v>
+      </c>
+    </row>
+    <row r="49" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>45</v>
+      </c>
+      <c r="G49" t="s">
+        <v>53</v>
+      </c>
+      <c r="H49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I49">
+        <v>2000</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="1"/>
+        <v>45.png</v>
+      </c>
+      <c r="K49">
+        <v>8989420910</v>
+      </c>
+    </row>
+    <row r="50" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>46</v>
+      </c>
+      <c r="G50" t="s">
+        <v>55</v>
+      </c>
+      <c r="H50" t="s">
+        <v>38</v>
+      </c>
+      <c r="I50">
+        <v>2000</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="1"/>
+        <v>46.png</v>
+      </c>
+      <c r="K50">
+        <v>6263518519</v>
+      </c>
+    </row>
+    <row r="51" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>47</v>
+      </c>
+      <c r="G51" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" t="s">
+        <v>38</v>
+      </c>
+      <c r="I51">
+        <v>2000</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="1"/>
+        <v>47.png</v>
+      </c>
+      <c r="K51">
+        <v>7879124412</v>
+      </c>
+    </row>
+    <row r="52" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>48</v>
+      </c>
+      <c r="G52" t="s">
+        <v>61</v>
+      </c>
+      <c r="H52" t="s">
+        <v>38</v>
+      </c>
+      <c r="I52">
+        <v>2000</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="1"/>
+        <v>48.png</v>
+      </c>
+      <c r="K52">
+        <v>9893529629</v>
+      </c>
+    </row>
+    <row r="53" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <v>49</v>
+      </c>
+      <c r="G53" t="s">
+        <v>62</v>
+      </c>
+      <c r="H53" t="s">
+        <v>38</v>
+      </c>
+      <c r="I53">
+        <v>2000</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="1"/>
+        <v>49.png</v>
+      </c>
+      <c r="K53">
+        <v>9179450200</v>
+      </c>
+    </row>
+    <row r="54" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>50</v>
+      </c>
+      <c r="G54" t="s">
+        <v>64</v>
+      </c>
+      <c r="H54" t="s">
+        <v>38</v>
+      </c>
+      <c r="I54">
+        <v>2000</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="1"/>
+        <v>50.png</v>
+      </c>
+      <c r="K54">
+        <v>9340019456</v>
+      </c>
+    </row>
+    <row r="55" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>51</v>
+      </c>
+      <c r="G55" t="s">
+        <v>65</v>
+      </c>
+      <c r="H55" t="s">
+        <v>38</v>
+      </c>
+      <c r="I55">
+        <v>2000</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="1"/>
+        <v>51.png</v>
+      </c>
+      <c r="K55">
+        <v>8959055300</v>
+      </c>
+    </row>
+    <row r="56" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>52</v>
+      </c>
+      <c r="G56" t="s">
+        <v>29</v>
+      </c>
+      <c r="H56" t="s">
+        <v>39</v>
+      </c>
+      <c r="I56">
+        <v>2000</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="1"/>
+        <v>52.png</v>
+      </c>
+      <c r="K56">
+        <v>9179499989</v>
+      </c>
+    </row>
+    <row r="57" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <v>53</v>
+      </c>
+      <c r="G57" t="s">
+        <v>30</v>
+      </c>
+      <c r="H57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I57">
+        <v>2000</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="1"/>
+        <v>53.png</v>
+      </c>
+      <c r="K57">
+        <v>9589875162</v>
+      </c>
+    </row>
+    <row r="58" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>54</v>
+      </c>
+      <c r="G58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" t="s">
+        <v>39</v>
+      </c>
+      <c r="I58">
+        <v>2000</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="1"/>
+        <v>54.png</v>
+      </c>
+      <c r="K58">
+        <v>7415118178</v>
+      </c>
+    </row>
+    <row r="59" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>55</v>
+      </c>
+      <c r="G59" t="s">
+        <v>47</v>
+      </c>
+      <c r="H59" t="s">
+        <v>39</v>
+      </c>
+      <c r="I59">
+        <v>2000</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="1"/>
+        <v>55.png</v>
+      </c>
+      <c r="K59">
+        <v>7067862663</v>
+      </c>
+    </row>
+    <row r="60" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <v>56</v>
+      </c>
+      <c r="G60" t="s">
+        <v>59</v>
+      </c>
+      <c r="H60" t="s">
+        <v>39</v>
+      </c>
+      <c r="I60">
+        <v>2000</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="1"/>
+        <v>56.png</v>
+      </c>
+      <c r="K60">
+        <v>9479433455</v>
+      </c>
+    </row>
+    <row r="61" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <v>57</v>
+      </c>
+      <c r="G61" t="s">
+        <v>42</v>
+      </c>
+      <c r="H61" t="s">
+        <v>67</v>
+      </c>
+      <c r="I61">
+        <v>2000</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="1"/>
+        <v>57.png</v>
+      </c>
+      <c r="K61">
+        <v>9799863559</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25EA1C98-C85D-468B-A965-E4A86C2430F6}">
+  <dimension ref="F3:I64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.21875" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8">
+        <v>9977888157</v>
+      </c>
+    </row>
+    <row r="9" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9">
+        <v>7879733232</v>
+      </c>
+    </row>
+    <row r="10" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10">
+        <v>9406662432</v>
+      </c>
+    </row>
+    <row r="11" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11">
+        <v>9993593560</v>
+      </c>
+    </row>
+    <row r="12" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12">
+        <v>9926562668</v>
+      </c>
+    </row>
+    <row r="13" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13">
+        <v>9424886762</v>
+      </c>
+    </row>
+    <row r="14" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14">
+        <v>9425748989</v>
+      </c>
+    </row>
+    <row r="15" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15">
+        <v>9425948989</v>
+      </c>
+    </row>
+    <row r="16" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16">
+        <v>7089999908</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17">
+        <v>6261059794</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18">
+        <v>9039840811</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19">
+        <v>9827308998</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20">
+        <v>9424868688</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21">
+        <v>8085880666</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22">
+        <v>8169235413</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23">
+        <v>9619379490</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24">
+        <v>9827098270</v>
+      </c>
+    </row>
+    <row r="25" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25">
+        <v>9685424209</v>
+      </c>
+    </row>
+    <row r="26" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26">
+        <v>9589705007</v>
+      </c>
+    </row>
+    <row r="27" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27">
+        <v>9111352075</v>
+      </c>
+    </row>
+    <row r="28" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28">
+        <v>9424897327</v>
+      </c>
+    </row>
+    <row r="29" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29">
+        <v>9827516611</v>
+      </c>
+    </row>
+    <row r="30" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30">
+        <v>9907300311</v>
+      </c>
+    </row>
+    <row r="31" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31">
+        <v>9425406371</v>
+      </c>
+    </row>
+    <row r="32" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>25</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32">
+        <v>9406819841</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33">
+        <v>9425406381</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34">
+        <v>9300255075</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>28</v>
+      </c>
+      <c r="G35" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35">
+        <v>6261147683</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>29</v>
+      </c>
+      <c r="G36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36">
+        <v>9827238001</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>30</v>
+      </c>
+      <c r="G37" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37">
+        <v>9425049132</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>31</v>
+      </c>
+      <c r="G38" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I38">
+        <v>9691468366</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>32</v>
+      </c>
+      <c r="G39" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39">
+        <v>9827227204</v>
+      </c>
+    </row>
+    <row r="40" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>33</v>
+      </c>
+      <c r="G40" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40">
+        <v>9617733100</v>
+      </c>
+    </row>
+    <row r="41" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>34</v>
+      </c>
+      <c r="G41" t="s">
+        <v>66</v>
+      </c>
+      <c r="H41" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41">
+        <v>8103874834</v>
+      </c>
+    </row>
+    <row r="42" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>35</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42">
+        <v>9425306590</v>
+      </c>
+    </row>
+    <row r="43" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>36</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43">
+        <v>7240385111</v>
+      </c>
+    </row>
+    <row r="44" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>37</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44">
+        <v>9098990501</v>
+      </c>
+    </row>
+    <row r="45" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>38</v>
+      </c>
+      <c r="G45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45">
+        <v>9893202329</v>
+      </c>
+    </row>
+    <row r="46" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>39</v>
+      </c>
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46">
+        <v>9424502011</v>
+      </c>
+    </row>
+    <row r="47" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>40</v>
+      </c>
+      <c r="G47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47">
+        <v>9752864334</v>
+      </c>
+    </row>
+    <row r="48" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>41</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48">
+        <v>9584061861</v>
+      </c>
+    </row>
+    <row r="49" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>42</v>
+      </c>
+      <c r="G49" t="s">
+        <v>48</v>
+      </c>
+      <c r="H49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I49">
+        <v>9691085850</v>
+      </c>
+    </row>
+    <row r="50" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>43</v>
+      </c>
+      <c r="G50" t="s">
+        <v>51</v>
+      </c>
+      <c r="H50" t="s">
+        <v>38</v>
+      </c>
+      <c r="I50">
+        <v>8103092492</v>
+      </c>
+    </row>
+    <row r="51" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>44</v>
+      </c>
+      <c r="G51" t="s">
+        <v>52</v>
+      </c>
+      <c r="H51" t="s">
+        <v>38</v>
+      </c>
+      <c r="I51">
+        <v>9827335611</v>
+      </c>
+    </row>
+    <row r="52" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>45</v>
+      </c>
+      <c r="G52" t="s">
+        <v>53</v>
+      </c>
+      <c r="H52" t="s">
+        <v>38</v>
+      </c>
+      <c r="I52">
+        <v>8989420910</v>
+      </c>
+    </row>
+    <row r="53" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <v>46</v>
+      </c>
+      <c r="G53" t="s">
+        <v>55</v>
+      </c>
+      <c r="H53" t="s">
+        <v>38</v>
+      </c>
+      <c r="I53">
+        <v>6263518519</v>
+      </c>
+    </row>
+    <row r="54" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>47</v>
+      </c>
+      <c r="G54" t="s">
+        <v>57</v>
+      </c>
+      <c r="H54" t="s">
+        <v>38</v>
+      </c>
+      <c r="I54">
+        <v>7879124412</v>
+      </c>
+    </row>
+    <row r="55" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>48</v>
+      </c>
+      <c r="G55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H55" t="s">
+        <v>38</v>
+      </c>
+      <c r="I55">
+        <v>9893529629</v>
+      </c>
+    </row>
+    <row r="56" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>49</v>
+      </c>
+      <c r="G56" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I56">
+        <v>9179450200</v>
+      </c>
+    </row>
+    <row r="57" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <v>50</v>
+      </c>
+      <c r="G57" t="s">
+        <v>64</v>
+      </c>
+      <c r="H57" t="s">
+        <v>38</v>
+      </c>
+      <c r="I57">
+        <v>9340019456</v>
+      </c>
+    </row>
+    <row r="58" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>51</v>
+      </c>
+      <c r="G58" t="s">
+        <v>65</v>
+      </c>
+      <c r="H58" t="s">
+        <v>38</v>
+      </c>
+      <c r="I58">
+        <v>8959055300</v>
+      </c>
+    </row>
+    <row r="59" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>52</v>
+      </c>
+      <c r="G59" t="s">
+        <v>29</v>
+      </c>
+      <c r="H59" t="s">
+        <v>39</v>
+      </c>
+      <c r="I59">
+        <v>9179499989</v>
+      </c>
+    </row>
+    <row r="60" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <v>53</v>
+      </c>
+      <c r="G60" t="s">
+        <v>30</v>
+      </c>
+      <c r="H60" t="s">
+        <v>39</v>
+      </c>
+      <c r="I60">
+        <v>9589875162</v>
+      </c>
+    </row>
+    <row r="61" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <v>54</v>
+      </c>
+      <c r="G61" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" t="s">
+        <v>39</v>
+      </c>
+      <c r="I61">
+        <v>7415118178</v>
+      </c>
+    </row>
+    <row r="62" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>55</v>
+      </c>
+      <c r="G62" t="s">
+        <v>47</v>
+      </c>
+      <c r="H62" t="s">
+        <v>39</v>
+      </c>
+      <c r="I62">
+        <v>7067862663</v>
+      </c>
+    </row>
+    <row r="63" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <v>56</v>
+      </c>
+      <c r="G63" t="s">
+        <v>59</v>
+      </c>
+      <c r="H63" t="s">
+        <v>39</v>
+      </c>
+      <c r="I63">
+        <v>9479433455</v>
+      </c>
+    </row>
+    <row r="64" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F64">
+        <v>57</v>
+      </c>
+      <c r="G64" t="s">
+        <v>42</v>
+      </c>
+      <c r="H64" t="s">
+        <v>67</v>
+      </c>
+      <c r="I64">
+        <v>9799863559</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F3:I5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/players.xlsx
+++ b/data/players.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarth\Desktop\auction\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342D8047-0C55-4802-8DB1-584255653A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F90354-E640-44E4-ACF3-AC73CB53C345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{114998B3-A9B1-4D91-9BF6-0749A2EDDC94}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="84">
   <si>
     <t>Role</t>
   </si>
@@ -286,6 +286,42 @@
       </rPr>
       <t>Player List</t>
     </r>
+  </si>
+  <si>
+    <t>Raghav Jhawar</t>
+  </si>
+  <si>
+    <t>4.jpg</t>
+  </si>
+  <si>
+    <t>3.jpg</t>
+  </si>
+  <si>
+    <t>1.jpg</t>
+  </si>
+  <si>
+    <t>5.jpg</t>
+  </si>
+  <si>
+    <t>7.jpg</t>
+  </si>
+  <si>
+    <t>8.jpg</t>
+  </si>
+  <si>
+    <t>14.png</t>
+  </si>
+  <si>
+    <t>16.png</t>
+  </si>
+  <si>
+    <t>47.png</t>
+  </si>
+  <si>
+    <t>46.JPG</t>
+  </si>
+  <si>
+    <t>56.JPG</t>
   </si>
 </sst>
 </file>
@@ -365,8 +401,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3BCEE852-BA94-4447-B223-21B37007A28C}" name="Table2" displayName="Table2" ref="F3:K61" totalsRowShown="0">
   <autoFilter ref="F3:K61" xr:uid="{3BCEE852-BA94-4447-B223-21B37007A28C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F4:J61">
-    <sortCondition ref="H3:H61"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F4:K61">
+    <sortCondition ref="F3:F61"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{50117CD1-DFD7-4CE2-906C-2650A937E4B8}" name="SNo"/>
@@ -378,7 +414,7 @@
     </tableColumn>
     <tableColumn id="7" xr3:uid="{49BB34F4-CB4E-4DE2-A830-3F0971B1EC52}" name="PhoneNumber"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -697,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95C78EB-6926-4C44-8C6D-88C322B2A2EE}">
   <dimension ref="F3:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,8 +750,8 @@
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
     <col min="10" max="10" width="19.109375" customWidth="1"/>
     <col min="11" max="11" width="17.6640625" customWidth="1"/>
-    <col min="17" max="17" width="13.5546875" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="6:11" x14ac:dyDescent="0.3">
@@ -771,9 +807,8 @@
       <c r="I5">
         <v>2000</v>
       </c>
-      <c r="J5" t="str">
-        <f t="shared" ref="J5:J33" si="0">F5&amp;".png"</f>
-        <v>1.png</v>
+      <c r="J5" t="s">
+        <v>75</v>
       </c>
       <c r="K5">
         <v>9977888157</v>
@@ -793,8 +828,8 @@
         <v>2000</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>2.png</v>
+        <f>F6&amp;".jpg"</f>
+        <v>2.jpg</v>
       </c>
       <c r="K6">
         <v>7879733232</v>
@@ -813,9 +848,8 @@
       <c r="I7">
         <v>2000</v>
       </c>
-      <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v>3.png</v>
+      <c r="J7" t="s">
+        <v>74</v>
       </c>
       <c r="K7">
         <v>9406662432</v>
@@ -834,9 +868,8 @@
       <c r="I8">
         <v>2000</v>
       </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>4.png</v>
+      <c r="J8" t="s">
+        <v>73</v>
       </c>
       <c r="K8">
         <v>9993593560</v>
@@ -855,9 +888,8 @@
       <c r="I9">
         <v>2000</v>
       </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>5.png</v>
+      <c r="J9" t="s">
+        <v>76</v>
       </c>
       <c r="K9">
         <v>9926562668</v>
@@ -877,8 +909,8 @@
         <v>2000</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>6.png</v>
+        <f>F10&amp;".jpeg"</f>
+        <v>6.jpeg</v>
       </c>
       <c r="K10">
         <v>9424886762</v>
@@ -897,9 +929,8 @@
       <c r="I11">
         <v>2000</v>
       </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>7.png</v>
+      <c r="J11" t="s">
+        <v>77</v>
       </c>
       <c r="K11">
         <v>9425748989</v>
@@ -918,9 +949,8 @@
       <c r="I12">
         <v>2000</v>
       </c>
-      <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v>8.png</v>
+      <c r="J12" t="s">
+        <v>78</v>
       </c>
       <c r="K12">
         <v>9425948989</v>
@@ -940,8 +970,8 @@
         <v>2000</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v>9.png</v>
+        <f>F13&amp;".jpeg"</f>
+        <v>9.jpeg</v>
       </c>
       <c r="K13">
         <v>7089999908</v>
@@ -961,8 +991,8 @@
         <v>2000</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="0"/>
-        <v>10.png</v>
+        <f>F14&amp;".jpg"</f>
+        <v>10.jpg</v>
       </c>
       <c r="K14">
         <v>6261059794</v>
@@ -982,8 +1012,8 @@
         <v>2000</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="0"/>
-        <v>11.png</v>
+        <f>F15&amp;".jpg"</f>
+        <v>11.jpg</v>
       </c>
       <c r="K15">
         <v>9039840811</v>
@@ -1003,8 +1033,8 @@
         <v>2000</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="0"/>
-        <v>12.png</v>
+        <f>F16&amp;".jpg"</f>
+        <v>12.jpg</v>
       </c>
       <c r="K16">
         <v>9827308998</v>
@@ -1024,8 +1054,8 @@
         <v>2000</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="0"/>
-        <v>13.png</v>
+        <f>F17&amp;".jpg"</f>
+        <v>13.jpg</v>
       </c>
       <c r="K17">
         <v>9424868688</v>
@@ -1044,9 +1074,8 @@
       <c r="I18">
         <v>2000</v>
       </c>
-      <c r="J18" t="str">
-        <f t="shared" si="0"/>
-        <v>14.png</v>
+      <c r="J18" t="s">
+        <v>79</v>
       </c>
       <c r="K18">
         <v>8085880666</v>
@@ -1066,8 +1095,8 @@
         <v>2000</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="0"/>
-        <v>15.png</v>
+        <f>F19&amp;".jpg"</f>
+        <v>15.jpg</v>
       </c>
       <c r="K19">
         <v>8169235413</v>
@@ -1086,9 +1115,8 @@
       <c r="I20">
         <v>2000</v>
       </c>
-      <c r="J20" t="str">
-        <f t="shared" si="0"/>
-        <v>16.png</v>
+      <c r="J20" t="s">
+        <v>80</v>
       </c>
       <c r="K20">
         <v>9619379490</v>
@@ -1108,8 +1136,8 @@
         <v>2000</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="0"/>
-        <v>17.png</v>
+        <f t="shared" ref="J21:J49" si="0">F21&amp;".jpg"</f>
+        <v>17.jpg</v>
       </c>
       <c r="K21">
         <v>9827098270</v>
@@ -1130,7 +1158,7 @@
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
-        <v>18.png</v>
+        <v>18.jpg</v>
       </c>
       <c r="K22">
         <v>9685424209</v>
@@ -1151,7 +1179,7 @@
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
-        <v>19.png</v>
+        <v>19.jpg</v>
       </c>
       <c r="K23">
         <v>9589705007</v>
@@ -1172,7 +1200,7 @@
       </c>
       <c r="J24" t="str">
         <f t="shared" si="0"/>
-        <v>20.png</v>
+        <v>20.jpg</v>
       </c>
       <c r="K24">
         <v>9111352075</v>
@@ -1193,7 +1221,7 @@
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
-        <v>21.png</v>
+        <v>21.jpg</v>
       </c>
       <c r="K25">
         <v>9424897327</v>
@@ -1214,7 +1242,7 @@
       </c>
       <c r="J26" t="str">
         <f t="shared" si="0"/>
-        <v>22.png</v>
+        <v>22.jpg</v>
       </c>
       <c r="K26">
         <v>9827516611</v>
@@ -1235,7 +1263,7 @@
       </c>
       <c r="J27" t="str">
         <f t="shared" si="0"/>
-        <v>23.png</v>
+        <v>23.jpg</v>
       </c>
       <c r="K27">
         <v>9907300311</v>
@@ -1256,7 +1284,7 @@
       </c>
       <c r="J28" t="str">
         <f t="shared" si="0"/>
-        <v>24.png</v>
+        <v>24.jpg</v>
       </c>
       <c r="K28">
         <v>9425406371</v>
@@ -1277,7 +1305,7 @@
       </c>
       <c r="J29" t="str">
         <f t="shared" si="0"/>
-        <v>25.png</v>
+        <v>25.jpg</v>
       </c>
       <c r="K29">
         <v>9406819841</v>
@@ -1298,7 +1326,7 @@
       </c>
       <c r="J30" t="str">
         <f t="shared" si="0"/>
-        <v>26.png</v>
+        <v>26.jpg</v>
       </c>
       <c r="K30">
         <v>9425406381</v>
@@ -1319,7 +1347,7 @@
       </c>
       <c r="J31" t="str">
         <f t="shared" si="0"/>
-        <v>27.png</v>
+        <v>27.jpg</v>
       </c>
       <c r="K31">
         <v>9300255075</v>
@@ -1340,7 +1368,7 @@
       </c>
       <c r="J32" t="str">
         <f t="shared" si="0"/>
-        <v>28.png</v>
+        <v>28.jpg</v>
       </c>
       <c r="K32">
         <v>6261147683</v>
@@ -1361,10 +1389,10 @@
       </c>
       <c r="J33" t="str">
         <f t="shared" si="0"/>
-        <v>29.png</v>
+        <v>29.jpg</v>
       </c>
       <c r="K33">
-        <v>9827238001</v>
+        <v>8982210605</v>
       </c>
     </row>
     <row r="34" spans="6:11" x14ac:dyDescent="0.3">
@@ -1381,8 +1409,8 @@
         <v>2000</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" ref="J34:J61" si="1">F34&amp;".png"</f>
-        <v>30.png</v>
+        <f t="shared" si="0"/>
+        <v>30.jpg</v>
       </c>
       <c r="K34">
         <v>9425049132</v>
@@ -1402,8 +1430,8 @@
         <v>2000</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="1"/>
-        <v>31.png</v>
+        <f t="shared" si="0"/>
+        <v>31.jpg</v>
       </c>
       <c r="K35">
         <v>9691468366</v>
@@ -1423,8 +1451,8 @@
         <v>2000</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="1"/>
-        <v>32.png</v>
+        <f t="shared" si="0"/>
+        <v>32.jpg</v>
       </c>
       <c r="K36">
         <v>9827227204</v>
@@ -1444,8 +1472,8 @@
         <v>2000</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="1"/>
-        <v>33.png</v>
+        <f t="shared" si="0"/>
+        <v>33.jpg</v>
       </c>
       <c r="K37">
         <v>9617733100</v>
@@ -1465,8 +1493,8 @@
         <v>2000</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="1"/>
-        <v>34.png</v>
+        <f t="shared" si="0"/>
+        <v>34.jpg</v>
       </c>
       <c r="K38">
         <v>8103874834</v>
@@ -1486,8 +1514,8 @@
         <v>2000</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="1"/>
-        <v>35.png</v>
+        <f t="shared" si="0"/>
+        <v>35.jpg</v>
       </c>
       <c r="K39">
         <v>9425306590</v>
@@ -1507,8 +1535,8 @@
         <v>2000</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="1"/>
-        <v>36.png</v>
+        <f t="shared" si="0"/>
+        <v>36.jpg</v>
       </c>
       <c r="K40">
         <v>7240385111</v>
@@ -1528,8 +1556,8 @@
         <v>2000</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="1"/>
-        <v>37.png</v>
+        <f t="shared" si="0"/>
+        <v>37.jpg</v>
       </c>
       <c r="K41">
         <v>9098990501</v>
@@ -1540,7 +1568,7 @@
         <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="H42" t="s">
         <v>38</v>
@@ -1549,11 +1577,11 @@
         <v>2000</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="1"/>
-        <v>38.png</v>
+        <f t="shared" si="0"/>
+        <v>38.jpg</v>
       </c>
       <c r="K42">
-        <v>9893202329</v>
+        <v>9755275445</v>
       </c>
     </row>
     <row r="43" spans="6:11" x14ac:dyDescent="0.3">
@@ -1570,8 +1598,8 @@
         <v>2000</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="1"/>
-        <v>39.png</v>
+        <f t="shared" si="0"/>
+        <v>39.jpg</v>
       </c>
       <c r="K43">
         <v>9424502011</v>
@@ -1591,8 +1619,8 @@
         <v>2000</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="1"/>
-        <v>40.png</v>
+        <f t="shared" si="0"/>
+        <v>40.jpg</v>
       </c>
       <c r="K44">
         <v>9752864334</v>
@@ -1612,8 +1640,8 @@
         <v>2000</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="1"/>
-        <v>41.png</v>
+        <f t="shared" si="0"/>
+        <v>41.jpg</v>
       </c>
       <c r="K45">
         <v>9584061861</v>
@@ -1633,8 +1661,8 @@
         <v>2000</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="1"/>
-        <v>42.png</v>
+        <f t="shared" si="0"/>
+        <v>42.jpg</v>
       </c>
       <c r="K46">
         <v>9691085850</v>
@@ -1654,8 +1682,8 @@
         <v>2000</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="1"/>
-        <v>43.png</v>
+        <f t="shared" si="0"/>
+        <v>43.jpg</v>
       </c>
       <c r="K47">
         <v>8103092492</v>
@@ -1675,8 +1703,8 @@
         <v>2000</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="1"/>
-        <v>44.png</v>
+        <f t="shared" si="0"/>
+        <v>44.jpg</v>
       </c>
       <c r="K48">
         <v>9827335611</v>
@@ -1696,8 +1724,8 @@
         <v>2000</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="1"/>
-        <v>45.png</v>
+        <f t="shared" si="0"/>
+        <v>45.jpg</v>
       </c>
       <c r="K49">
         <v>8989420910</v>
@@ -1716,9 +1744,8 @@
       <c r="I50">
         <v>2000</v>
       </c>
-      <c r="J50" t="str">
-        <f t="shared" si="1"/>
-        <v>46.png</v>
+      <c r="J50" t="s">
+        <v>82</v>
       </c>
       <c r="K50">
         <v>6263518519</v>
@@ -1737,9 +1764,8 @@
       <c r="I51">
         <v>2000</v>
       </c>
-      <c r="J51" t="str">
-        <f t="shared" si="1"/>
-        <v>47.png</v>
+      <c r="J51" t="s">
+        <v>81</v>
       </c>
       <c r="K51">
         <v>7879124412</v>
@@ -1759,8 +1785,8 @@
         <v>2000</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="1"/>
-        <v>48.png</v>
+        <f t="shared" ref="J52:J59" si="1">F52&amp;".jpg"</f>
+        <v>48.jpg</v>
       </c>
       <c r="K52">
         <v>9893529629</v>
@@ -1781,7 +1807,7 @@
       </c>
       <c r="J53" t="str">
         <f t="shared" si="1"/>
-        <v>49.png</v>
+        <v>49.jpg</v>
       </c>
       <c r="K53">
         <v>9179450200</v>
@@ -1802,7 +1828,7 @@
       </c>
       <c r="J54" t="str">
         <f t="shared" si="1"/>
-        <v>50.png</v>
+        <v>50.jpg</v>
       </c>
       <c r="K54">
         <v>9340019456</v>
@@ -1823,7 +1849,7 @@
       </c>
       <c r="J55" t="str">
         <f t="shared" si="1"/>
-        <v>51.png</v>
+        <v>51.jpg</v>
       </c>
       <c r="K55">
         <v>8959055300</v>
@@ -1844,7 +1870,7 @@
       </c>
       <c r="J56" t="str">
         <f t="shared" si="1"/>
-        <v>52.png</v>
+        <v>52.jpg</v>
       </c>
       <c r="K56">
         <v>9179499989</v>
@@ -1865,7 +1891,7 @@
       </c>
       <c r="J57" t="str">
         <f t="shared" si="1"/>
-        <v>53.png</v>
+        <v>53.jpg</v>
       </c>
       <c r="K57">
         <v>9589875162</v>
@@ -1886,7 +1912,7 @@
       </c>
       <c r="J58" t="str">
         <f t="shared" si="1"/>
-        <v>54.png</v>
+        <v>54.jpg</v>
       </c>
       <c r="K58">
         <v>7415118178</v>
@@ -1907,7 +1933,7 @@
       </c>
       <c r="J59" t="str">
         <f t="shared" si="1"/>
-        <v>55.png</v>
+        <v>55.jpg</v>
       </c>
       <c r="K59">
         <v>7067862663</v>
@@ -1926,9 +1952,8 @@
       <c r="I60">
         <v>2000</v>
       </c>
-      <c r="J60" t="str">
-        <f t="shared" si="1"/>
-        <v>56.png</v>
+      <c r="J60" t="s">
+        <v>83</v>
       </c>
       <c r="K60">
         <v>9479433455</v>
@@ -1948,8 +1973,8 @@
         <v>2000</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="1"/>
-        <v>57.png</v>
+        <f>F61&amp;".jpg"</f>
+        <v>57.jpg</v>
       </c>
       <c r="K61">
         <v>9799863559</v>

--- a/data/players.xlsx
+++ b/data/players.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarth\Desktop\auction\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F90354-E640-44E4-ACF3-AC73CB53C345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E246EC-D6F2-41FB-9826-2C6EAAE97440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{114998B3-A9B1-4D91-9BF6-0749A2EDDC94}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="90">
   <si>
     <t>Role</t>
   </si>
@@ -322,6 +322,24 @@
   </si>
   <si>
     <t>56.JPG</t>
+  </si>
+  <si>
+    <t>21.jpeg</t>
+  </si>
+  <si>
+    <t>23.jpeg</t>
+  </si>
+  <si>
+    <t>25.png</t>
+  </si>
+  <si>
+    <t>35.jpeg</t>
+  </si>
+  <si>
+    <t>50.jpeg</t>
+  </si>
+  <si>
+    <t>52.jpeg</t>
   </si>
 </sst>
 </file>
@@ -733,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95C78EB-6926-4C44-8C6D-88C322B2A2EE}">
   <dimension ref="F3:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,8 +768,8 @@
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
     <col min="10" max="10" width="19.109375" customWidth="1"/>
     <col min="11" max="11" width="17.6640625" customWidth="1"/>
-    <col min="15" max="15" width="13.5546875" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="6:11" x14ac:dyDescent="0.3">
@@ -1157,8 +1175,8 @@
         <v>2000</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="0"/>
-        <v>18.jpg</v>
+        <f>F22&amp;".jpeg"</f>
+        <v>18.jpeg</v>
       </c>
       <c r="K22">
         <v>9685424209</v>
@@ -1219,9 +1237,8 @@
       <c r="I25">
         <v>2000</v>
       </c>
-      <c r="J25" t="str">
-        <f t="shared" si="0"/>
-        <v>21.jpg</v>
+      <c r="J25" t="s">
+        <v>84</v>
       </c>
       <c r="K25">
         <v>9424897327</v>
@@ -1261,9 +1278,8 @@
       <c r="I27">
         <v>2000</v>
       </c>
-      <c r="J27" t="str">
-        <f t="shared" si="0"/>
-        <v>23.jpg</v>
+      <c r="J27" t="s">
+        <v>85</v>
       </c>
       <c r="K27">
         <v>9907300311</v>
@@ -1303,9 +1319,8 @@
       <c r="I29">
         <v>2000</v>
       </c>
-      <c r="J29" t="str">
-        <f t="shared" si="0"/>
-        <v>25.jpg</v>
+      <c r="J29" t="s">
+        <v>86</v>
       </c>
       <c r="K29">
         <v>9406819841</v>
@@ -1513,9 +1528,8 @@
       <c r="I39">
         <v>2000</v>
       </c>
-      <c r="J39" t="str">
-        <f t="shared" si="0"/>
-        <v>35.jpg</v>
+      <c r="J39" t="s">
+        <v>87</v>
       </c>
       <c r="K39">
         <v>9425306590</v>
@@ -1826,9 +1840,8 @@
       <c r="I54">
         <v>2000</v>
       </c>
-      <c r="J54" t="str">
-        <f t="shared" si="1"/>
-        <v>50.jpg</v>
+      <c r="J54" t="s">
+        <v>88</v>
       </c>
       <c r="K54">
         <v>9340019456</v>
@@ -1868,9 +1881,8 @@
       <c r="I56">
         <v>2000</v>
       </c>
-      <c r="J56" t="str">
-        <f t="shared" si="1"/>
-        <v>52.jpg</v>
+      <c r="J56" t="s">
+        <v>89</v>
       </c>
       <c r="K56">
         <v>9179499989</v>
@@ -1973,8 +1985,8 @@
         <v>2000</v>
       </c>
       <c r="J61" t="str">
-        <f>F61&amp;".jpg"</f>
-        <v>57.jpg</v>
+        <f>F61&amp;".jpeg"</f>
+        <v>57.jpeg</v>
       </c>
       <c r="K61">
         <v>9799863559</v>
